--- a/ExcelProject/LoginAdmin.xlsx
+++ b/ExcelProject/LoginAdmin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jalem\OneDrive\Desktop\Project_Test_Tutors\ExcelProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE7785A-20F8-4888-B499-F529DB0EB648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A918F39-87CE-417B-8D56-372E8AFFD1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginAdmin" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="60">
   <si>
     <t>Execute</t>
   </si>
@@ -150,9 +150,6 @@
     <t>Expected Result</t>
   </si>
   <si>
-    <t>Class Converage ID</t>
-  </si>
-  <si>
     <t>Result</t>
   </si>
   <si>
@@ -184,6 +181,30 @@
   </si>
   <si>
     <t>กรุณากรอกรหัสผ่าน</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>#jame1235</t>
+  </si>
+  <si>
+    <t>#jame1236</t>
+  </si>
+  <si>
+    <t>#jame1237</t>
+  </si>
+  <si>
+    <t>#jame1238</t>
+  </si>
+  <si>
+    <t>#jame1239</t>
+  </si>
+  <si>
+    <t>#jame1240</t>
+  </si>
+  <si>
+    <t>#jame1241</t>
   </si>
 </sst>
 </file>
@@ -550,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -581,13 +602,13 @@
         <v>40</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -600,9 +621,11 @@
       <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -618,9 +641,11 @@
       <c r="C3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="E3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -636,9 +661,11 @@
       <c r="C4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="E4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -654,9 +681,11 @@
       <c r="C5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="E5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -672,9 +701,11 @@
       <c r="C6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="E6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -690,9 +721,11 @@
       <c r="C7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="E7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -708,9 +741,11 @@
       <c r="C8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="E8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -724,9 +759,11 @@
         <v>11</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="E9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -739,12 +776,14 @@
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D10" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -757,12 +796,14 @@
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D11" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -775,12 +816,14 @@
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D12" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -793,12 +836,14 @@
       <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D13" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -811,12 +856,14 @@
       <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D14" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -829,12 +876,14 @@
       <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D15" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -847,12 +896,14 @@
       <c r="B16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D16" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -865,12 +916,14 @@
       <c r="B17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D17" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -883,12 +936,14 @@
       <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D18" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -901,12 +956,14 @@
       <c r="B19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D19" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -919,10 +976,12 @@
       <c r="B20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D20" s="5"/>
       <c r="E20" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>

--- a/ExcelProject/LoginAdmin.xlsx
+++ b/ExcelProject/LoginAdmin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jalem\OneDrive\Desktop\Project_Test_Tutors\ExcelProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A918F39-87CE-417B-8D56-372E8AFFD1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070632BB-C616-4D62-8C07-A968EA94AED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginAdmin" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="70">
   <si>
     <t>Execute</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>TC6:02</t>
   </si>
   <si>
@@ -102,51 +99,12 @@
     <t>password</t>
   </si>
   <si>
-    <t>MJU6504106336@mju.ac.th</t>
-  </si>
-  <si>
-    <t>Jalem4544471@mju.ac.th</t>
-  </si>
-  <si>
-    <t>MJU6504106333@mju.ac.th</t>
-  </si>
-  <si>
-    <t>mju6504106336@mju.ac.th</t>
-  </si>
-  <si>
-    <t>mju650410633@mju.ac.th</t>
-  </si>
-  <si>
-    <t>mju65041063361@mju.ac.th</t>
-  </si>
-  <si>
     <t>#jame1234</t>
   </si>
   <si>
     <t>#เจม1234</t>
   </si>
   <si>
-    <t>#jame_12</t>
-  </si>
-  <si>
-    <t>#jame_123</t>
-  </si>
-  <si>
-    <t>#jame_123456789</t>
-  </si>
-  <si>
-    <t>#jame12345678910</t>
-  </si>
-  <si>
-    <t>#jame12</t>
-  </si>
-  <si>
-    <t>##jame123456789__</t>
-  </si>
-  <si>
-    <t>#jame 1234</t>
-  </si>
-  <si>
     <t>Expected Result</t>
   </si>
   <si>
@@ -186,32 +144,104 @@
     <t>Actual Result</t>
   </si>
   <si>
-    <t>#jame1235</t>
-  </si>
-  <si>
-    <t>#jame1236</t>
-  </si>
-  <si>
-    <t>#jame1237</t>
-  </si>
-  <si>
-    <t>#jame1238</t>
-  </si>
-  <si>
-    <t>#jame1239</t>
-  </si>
-  <si>
-    <t>#jame1240</t>
-  </si>
-  <si>
-    <t>#jame1241</t>
+    <t>Jalem4544471</t>
+  </si>
+  <si>
+    <t>mju650410633</t>
+  </si>
+  <si>
+    <t>mju65041063361</t>
+  </si>
+  <si>
+    <t>#Jame1234</t>
+  </si>
+  <si>
+    <t>#Jame_12</t>
+  </si>
+  <si>
+    <t>#Jame_123</t>
+  </si>
+  <si>
+    <t>#Jame_123456789</t>
+  </si>
+  <si>
+    <t>#Jame12345678910</t>
+  </si>
+  <si>
+    <t>#Jame12</t>
+  </si>
+  <si>
+    <t>##Jame123456789__</t>
+  </si>
+  <si>
+    <t>#Jame 1234</t>
+  </si>
+  <si>
+    <t>รหัสผ่านต้องมีตัวพิมพ์ใหญ่ พิมพ์เล็ก และตัวเลข อย่างน้อย 1 ตัว</t>
+  </si>
+  <si>
+    <t>TC6:20</t>
+  </si>
+  <si>
+    <t>TC6:21</t>
+  </si>
+  <si>
+    <t>MJU6504106500</t>
+  </si>
+  <si>
+    <t>MJU6504106501</t>
+  </si>
+  <si>
+    <t>mju6504106502</t>
+  </si>
+  <si>
+    <t>MJU6504106503</t>
+  </si>
+  <si>
+    <t>MJU6504106504</t>
+  </si>
+  <si>
+    <t>MJU6504106505</t>
+  </si>
+  <si>
+    <t>MJU6504106506</t>
+  </si>
+  <si>
+    <t>MJU6504106507</t>
+  </si>
+  <si>
+    <t>MJU6504106508</t>
+  </si>
+  <si>
+    <t>MJU6504106509</t>
+  </si>
+  <si>
+    <t>MJU6504106510</t>
+  </si>
+  <si>
+    <t>MJU6504106511</t>
+  </si>
+  <si>
+    <t>MJU6504106512</t>
+  </si>
+  <si>
+    <t>MJU6504106513</t>
+  </si>
+  <si>
+    <t>MJU6504106514</t>
+  </si>
+  <si>
+    <t>MJU6504106515</t>
+  </si>
+  <si>
+    <t>MJU 6504106336</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,7 +262,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Angsana New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Angsana New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Angsana New"/>
       <family val="1"/>
@@ -276,21 +325,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -569,426 +626,469 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="1"/>
     <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="43.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="49.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="52.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.140625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>43</v>
+      <c r="E2" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>44</v>
+      <c r="C3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="2" t="s">
+    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>43</v>
+      <c r="D4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>45</v>
+    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>43</v>
+    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+      <c r="A6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>46</v>
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+      <c r="A7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>46</v>
+    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+      <c r="A8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>47</v>
+    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+      <c r="A9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>43</v>
+    <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+      <c r="A10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="2" t="s">
+    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+      <c r="A11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>48</v>
+      <c r="E11" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="2" t="s">
+    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+      <c r="A12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>43</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>43</v>
+    <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+      <c r="A13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>43</v>
+    <row r="14" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+      <c r="A14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>43</v>
+    <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+      <c r="A15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>49</v>
+    <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+      <c r="A16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>49</v>
+    <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+      <c r="A17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>43</v>
+    <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+      <c r="A18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>50</v>
+    <row r="19" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+      <c r="A19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="2" t="s">
-        <v>51</v>
+    <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+      <c r="A20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
+    <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+      <c r="A22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="MJU6504106336@mju.ac.th" xr:uid="{1164351E-3C5D-4FDF-A0F8-D80890DC783D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>